--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.197811</v>
+        <v>0.420398</v>
       </c>
       <c r="H2">
-        <v>0.593433</v>
+        <v>1.261194</v>
       </c>
       <c r="I2">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="J2">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1093776666666667</v>
+        <v>0.041215</v>
       </c>
       <c r="N2">
-        <v>0.328133</v>
+        <v>0.123645</v>
       </c>
       <c r="O2">
-        <v>0.02919881906614821</v>
+        <v>0.01018270982542349</v>
       </c>
       <c r="P2">
-        <v>0.02919881906614821</v>
+        <v>0.0101827098254235</v>
       </c>
       <c r="Q2">
-        <v>0.021636105621</v>
+        <v>0.01732670357</v>
       </c>
       <c r="R2">
-        <v>0.194724950589</v>
+        <v>0.15594033213</v>
       </c>
       <c r="S2">
-        <v>3.720341577266028E-05</v>
+        <v>1.827508613964301E-05</v>
       </c>
       <c r="T2">
-        <v>3.720341577266029E-05</v>
+        <v>1.827508613964302E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.197811</v>
+        <v>0.420398</v>
       </c>
       <c r="H3">
-        <v>0.593433</v>
+        <v>1.261194</v>
       </c>
       <c r="I3">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="J3">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.961996</v>
       </c>
       <c r="O3">
-        <v>0.2635723480377004</v>
+        <v>0.243933404278904</v>
       </c>
       <c r="P3">
-        <v>0.2635723480377004</v>
+        <v>0.2439334042789041</v>
       </c>
       <c r="Q3">
-        <v>0.195305130252</v>
+        <v>0.4150723981360001</v>
       </c>
       <c r="R3">
-        <v>1.757746172268</v>
+        <v>3.735651583224</v>
       </c>
       <c r="S3">
-        <v>0.0003358283644283162</v>
+        <v>0.0004377915164000004</v>
       </c>
       <c r="T3">
-        <v>0.0003358283644283162</v>
+        <v>0.0004377915164000005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.197811</v>
+        <v>0.420398</v>
       </c>
       <c r="H4">
-        <v>0.593433</v>
+        <v>1.261194</v>
       </c>
       <c r="I4">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="J4">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5540906666666666</v>
+        <v>0.759735</v>
       </c>
       <c r="N4">
-        <v>1.662272</v>
+        <v>2.279205</v>
       </c>
       <c r="O4">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418444</v>
       </c>
       <c r="P4">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418445</v>
       </c>
       <c r="Q4">
-        <v>0.109605228864</v>
+        <v>0.31939107453</v>
       </c>
       <c r="R4">
-        <v>0.986447059776</v>
+        <v>2.874519670770001</v>
       </c>
       <c r="S4">
-        <v>0.0001884668605207387</v>
+        <v>0.0003368730454519395</v>
       </c>
       <c r="T4">
-        <v>0.0001884668605207387</v>
+        <v>0.0003368730454519395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.197811</v>
+        <v>0.420398</v>
       </c>
       <c r="H5">
-        <v>0.593433</v>
+        <v>1.261194</v>
       </c>
       <c r="I5">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="J5">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.095161666666666</v>
+        <v>2.259265333333333</v>
       </c>
       <c r="N5">
-        <v>6.285485</v>
+        <v>6.777796</v>
       </c>
       <c r="O5">
-        <v>0.5593120449878206</v>
+        <v>0.5581813249538279</v>
       </c>
       <c r="P5">
-        <v>0.5593120449878206</v>
+        <v>0.558181324953828</v>
       </c>
       <c r="Q5">
-        <v>0.4144460244449999</v>
+        <v>0.9497906276026669</v>
       </c>
       <c r="R5">
-        <v>3.730014220005</v>
+        <v>8.548115648424002</v>
       </c>
       <c r="S5">
-        <v>0.0007126424705464539</v>
+        <v>0.001001777716340555</v>
       </c>
       <c r="T5">
-        <v>0.000712642470546454</v>
+        <v>0.001001777716340555</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.046026666666667</v>
+        <v>0.04680500000000001</v>
       </c>
       <c r="H6">
-        <v>3.13808</v>
+        <v>0.140415</v>
       </c>
       <c r="I6">
-        <v>0.00673767171432734</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="J6">
-        <v>0.006737671714327341</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1093776666666667</v>
+        <v>0.041215</v>
       </c>
       <c r="N6">
-        <v>0.328133</v>
+        <v>0.123645</v>
       </c>
       <c r="O6">
-        <v>0.02919881906614821</v>
+        <v>0.01018270982542349</v>
       </c>
       <c r="P6">
-        <v>0.02919881906614821</v>
+        <v>0.0101827098254235</v>
       </c>
       <c r="Q6">
-        <v>0.1144119560711111</v>
+        <v>0.001929068075</v>
       </c>
       <c r="R6">
-        <v>1.02970760464</v>
+        <v>0.017361612675</v>
       </c>
       <c r="S6">
-        <v>0.0001967320573137486</v>
+        <v>2.034656222831677E-06</v>
       </c>
       <c r="T6">
-        <v>0.0001967320573137487</v>
+        <v>2.034656222831677E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.046026666666667</v>
+        <v>0.04680500000000001</v>
       </c>
       <c r="H7">
-        <v>3.13808</v>
+        <v>0.140415</v>
       </c>
       <c r="I7">
-        <v>0.00673767171432734</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="J7">
-        <v>0.006737671714327341</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>2.961996</v>
       </c>
       <c r="O7">
-        <v>0.2635723480377004</v>
+        <v>0.243933404278904</v>
       </c>
       <c r="P7">
-        <v>0.2635723480377004</v>
+        <v>0.2439334042789041</v>
       </c>
       <c r="Q7">
-        <v>1.032775600853333</v>
+        <v>0.04621207426000001</v>
       </c>
       <c r="R7">
-        <v>9.294980407680001</v>
+        <v>0.4159086683400001</v>
       </c>
       <c r="S7">
-        <v>0.001775863954052455</v>
+        <v>4.874150667962745E-05</v>
       </c>
       <c r="T7">
-        <v>0.001775863954052455</v>
+        <v>4.874150667962745E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.046026666666667</v>
+        <v>0.04680500000000001</v>
       </c>
       <c r="H8">
-        <v>3.13808</v>
+        <v>0.140415</v>
       </c>
       <c r="I8">
-        <v>0.00673767171432734</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="J8">
-        <v>0.006737671714327341</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5540906666666666</v>
+        <v>0.759735</v>
       </c>
       <c r="N8">
-        <v>1.662272</v>
+        <v>2.279205</v>
       </c>
       <c r="O8">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418444</v>
       </c>
       <c r="P8">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418445</v>
       </c>
       <c r="Q8">
-        <v>0.5795936130844443</v>
+        <v>0.03555939667500001</v>
       </c>
       <c r="R8">
-        <v>5.21634251776</v>
+        <v>0.320034570075</v>
       </c>
       <c r="S8">
-        <v>0.0009966147579641167</v>
+        <v>3.750575143644363E-05</v>
       </c>
       <c r="T8">
-        <v>0.0009966147579641169</v>
+        <v>3.750575143644363E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.046026666666667</v>
+        <v>0.04680500000000001</v>
       </c>
       <c r="H9">
-        <v>3.13808</v>
+        <v>0.140415</v>
       </c>
       <c r="I9">
-        <v>0.00673767171432734</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="J9">
-        <v>0.006737671714327341</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.095161666666666</v>
+        <v>2.259265333333333</v>
       </c>
       <c r="N9">
-        <v>6.285485</v>
+        <v>6.777796</v>
       </c>
       <c r="O9">
-        <v>0.5593120449878206</v>
+        <v>0.5581813249538279</v>
       </c>
       <c r="P9">
-        <v>0.5593120449878206</v>
+        <v>0.558181324953828</v>
       </c>
       <c r="Q9">
-        <v>2.191594974311111</v>
+        <v>0.1057449139266667</v>
       </c>
       <c r="R9">
-        <v>19.7243547688</v>
+        <v>0.9517042253400001</v>
       </c>
       <c r="S9">
-        <v>0.00376846094499702</v>
+        <v>0.0001115328950502135</v>
       </c>
       <c r="T9">
-        <v>0.00376846094499702</v>
+        <v>0.0001115328950502135</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>154.0066273333333</v>
+        <v>233.774694</v>
       </c>
       <c r="H10">
-        <v>462.0198819999999</v>
+        <v>701.324082</v>
       </c>
       <c r="I10">
-        <v>0.9919881871744044</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="J10">
-        <v>0.9919881871744045</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1093776666666667</v>
+        <v>0.041215</v>
       </c>
       <c r="N10">
-        <v>0.328133</v>
+        <v>0.123645</v>
       </c>
       <c r="O10">
-        <v>0.02919881906614821</v>
+        <v>0.01018270982542349</v>
       </c>
       <c r="P10">
-        <v>0.02919881906614821</v>
+        <v>0.0101827098254235</v>
       </c>
       <c r="Q10">
-        <v>16.84488554892289</v>
+        <v>9.63502401321</v>
       </c>
       <c r="R10">
-        <v>151.603969940306</v>
+        <v>86.71521611889</v>
       </c>
       <c r="S10">
-        <v>0.0289648835930618</v>
+        <v>0.01016240008306102</v>
       </c>
       <c r="T10">
-        <v>0.0289648835930618</v>
+        <v>0.01016240008306102</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>154.0066273333333</v>
+        <v>233.774694</v>
       </c>
       <c r="H11">
-        <v>462.0198819999999</v>
+        <v>701.324082</v>
       </c>
       <c r="I11">
-        <v>0.9919881871744044</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="J11">
-        <v>0.9919881871744045</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.961996</v>
       </c>
       <c r="O11">
-        <v>0.2635723480377004</v>
+        <v>0.243933404278904</v>
       </c>
       <c r="P11">
-        <v>0.2635723480377004</v>
+        <v>0.2439334042789041</v>
       </c>
       <c r="Q11">
-        <v>152.0556713782746</v>
+        <v>230.813236176408</v>
       </c>
       <c r="R11">
-        <v>1368.501042404472</v>
+        <v>2077.319125587672</v>
       </c>
       <c r="S11">
-        <v>0.2614606557192196</v>
+        <v>0.2434468712558244</v>
       </c>
       <c r="T11">
-        <v>0.2614606557192196</v>
+        <v>0.2434468712558244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.0066273333333</v>
+        <v>233.774694</v>
       </c>
       <c r="H12">
-        <v>462.0198819999999</v>
+        <v>701.324082</v>
       </c>
       <c r="I12">
-        <v>0.9919881871744044</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="J12">
-        <v>0.9919881871744045</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5540906666666666</v>
+        <v>0.759735</v>
       </c>
       <c r="N12">
-        <v>1.662272</v>
+        <v>2.279205</v>
       </c>
       <c r="O12">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418444</v>
       </c>
       <c r="P12">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418445</v>
       </c>
       <c r="Q12">
-        <v>85.33363481021154</v>
+        <v>177.60681714609</v>
       </c>
       <c r="R12">
-        <v>768.0027132919039</v>
+        <v>1598.46135431481</v>
       </c>
       <c r="S12">
-        <v>0.1467317062898459</v>
+        <v>0.1873281821449561</v>
       </c>
       <c r="T12">
-        <v>0.1467317062898459</v>
+        <v>0.1873281821449561</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.0066273333333</v>
+        <v>233.774694</v>
       </c>
       <c r="H13">
-        <v>462.0198819999999</v>
+        <v>701.324082</v>
       </c>
       <c r="I13">
-        <v>0.9919881871744044</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="J13">
-        <v>0.9919881871744045</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.095161666666666</v>
+        <v>2.259265333333333</v>
       </c>
       <c r="N13">
-        <v>6.285485</v>
+        <v>6.777796</v>
       </c>
       <c r="O13">
-        <v>0.5593120449878206</v>
+        <v>0.5581813249538279</v>
       </c>
       <c r="P13">
-        <v>0.5593120449878206</v>
+        <v>0.558181324953828</v>
       </c>
       <c r="Q13">
-        <v>322.6687820014188</v>
+        <v>528.159061964808</v>
       </c>
       <c r="R13">
-        <v>2904.019038012769</v>
+        <v>4753.431557683272</v>
       </c>
       <c r="S13">
-        <v>0.5548309415722771</v>
+        <v>0.5570680143424371</v>
       </c>
       <c r="T13">
-        <v>0.5548309415722772</v>
+        <v>0.5570680143424372</v>
       </c>
     </row>
   </sheetData>
